--- a/JavaFile/excel/prod2.xlsx
+++ b/JavaFile/excel/prod2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>상품번호</t>
   </si>
@@ -26,7 +26,10 @@
     <t>포도</t>
   </si>
   <si>
-    <t>볼펜</t>
+    <t>컵</t>
+  </si>
+  <si>
+    <t>bbbbbb</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -101,13 +104,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1000.0</v>
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2222222.0</v>
       </c>
     </row>
   </sheetData>
